--- a/functions/schema/LC_CashFlow Indirect_all_accounts.xlsx
+++ b/functions/schema/LC_CashFlow Indirect_all_accounts.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D231"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,9 @@
       <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -464,6 +467,11 @@
           <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -484,6 +492,11 @@
           <t>lợi nhuận trước thuế</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -504,6 +517,11 @@
           <t>điều chỉnh cho các khoản</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -524,6 +542,11 @@
           <t>khấu hao tscđ và bđsđt</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -544,6 +567,11 @@
           <t>các khoản dự phòng</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -564,6 +592,11 @@
           <t>lãi lỗ chênh lệch tỷ giá hối đoái do đánh giá lại các khoản mục tiền tệ có gốc ngoại tệ</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +617,11 @@
           <t>lãi lỗ từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -604,6 +642,11 @@
           <t>chi phí lãi vay</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -624,6 +667,11 @@
           <t>lãi lỗ từ thanh lý tscđ</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -644,6 +692,11 @@
           <t>thu nhập lãi vay và cổ tức</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -664,6 +717,11 @@
           <t>phân bổ lợi thế thương mại</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -684,6 +742,11 @@
           <t>điều chỉnh cho các khoản khác</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -704,6 +767,11 @@
           <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -724,6 +792,11 @@
           <t>tăng giảm các khoản phải thu</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -744,6 +817,11 @@
           <t>tăng giảm hàng tồn kho</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -764,6 +842,11 @@
           <t>tăng giảm các khoản phải trả không kể lãi vay phải trả thuế thu nhập phải nộp</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -784,6 +867,11 @@
           <t>tăng giảm chi phí trả trước</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -804,6 +892,11 @@
           <t>tăng giảm chứng khoán kinh doanh</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -824,6 +917,11 @@
           <t>tiền lãi vay đã trả</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -844,6 +942,11 @@
           <t>thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -864,6 +967,11 @@
           <t>tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -884,6 +992,11 @@
           <t>tiền chi khác cho hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -904,6 +1017,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -924,6 +1042,11 @@
           <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -944,6 +1067,11 @@
           <t>tiền chi để mua sắm xây dựng tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -964,6 +1092,11 @@
           <t>tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -984,6 +1117,11 @@
           <t>tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1004,6 +1142,11 @@
           <t>tiền thu hồi cho vay bán lại các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1024,6 +1167,11 @@
           <t>tiền chi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1044,6 +1192,11 @@
           <t>tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1064,6 +1217,11 @@
           <t>tiền thu lãi cho vay cổ tức và lợi nhuận được chia</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1084,6 +1242,11 @@
           <t>tăng giảm tiền gửi ngân hàng có kỳ hạn</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1104,6 +1267,11 @@
           <t>mua lại khoản góp vốn của cổ đông thiểu số trong công ty con</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1124,6 +1292,11 @@
           <t>tiền thu khác từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1144,6 +1317,11 @@
           <t>tiền chi khác cho hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1164,6 +1342,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1184,6 +1367,11 @@
           <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1204,6 +1392,11 @@
           <t>tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1224,6 +1417,11 @@
           <t>tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1244,6 +1442,11 @@
           <t>tiền thu từ đi vay</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1264,6 +1467,11 @@
           <t>tiền trả nợ gốc vay</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1284,6 +1492,11 @@
           <t>tiền trả nợ gốc thuê tài chính</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1304,6 +1517,11 @@
           <t>cổ tức lợi nhuận đã trả cho chủ sở hữu</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1324,6 +1542,11 @@
           <t>tiền thu khác từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1344,6 +1567,11 @@
           <t>tiền chi khác cho hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1364,6 +1592,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1384,6 +1617,11 @@
           <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1404,6 +1642,11 @@
           <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1424,6 +1667,11 @@
           <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1444,6 +1692,11 @@
           <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1464,6 +1717,11 @@
           <t>khấu hao tài sản cố định</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1484,6 +1742,11 @@
           <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1504,6 +1767,11 @@
           <t>khác</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1524,6 +1792,11 @@
           <t>tăng giảm chứng khoán kinh doanh</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1544,6 +1817,11 @@
           <t>thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1564,6 +1842,11 @@
           <t>tiền chi khác từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1584,6 +1867,11 @@
           <t>tiền chi khác từ hoat động đầu tư</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1604,6 +1892,11 @@
           <t>tiền vay ngắn hạn dài hạn nhận được</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1624,6 +1917,11 @@
           <t>tiền chi trả nợ gốc vay</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1644,6 +1942,11 @@
           <t>tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1664,6 +1967,11 @@
           <t>tiền chi khác từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1676,6 +1984,11 @@
           <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1688,6 +2001,11 @@
           <t>1 lợi nhuận trước thuế</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1700,6 +2018,11 @@
           <t>2 điều chỉnh cho các khoản</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1712,6 +2035,11 @@
           <t>khấu hao tài sản cố định</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1724,6 +2052,11 @@
           <t>các khoản dự phòng</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1736,6 +2069,11 @@
           <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1748,6 +2086,11 @@
           <t>cổ tức lãi liên doanh đã trả</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1760,6 +2103,11 @@
           <t>lãi lỗ từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1772,6 +2120,11 @@
           <t>chi phí lãi vay</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1784,6 +2137,11 @@
           <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1796,6 +2154,11 @@
           <t>tăng giảm các khoản phải thu</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1808,6 +2171,11 @@
           <t>tăng giảm hàng tồn kho</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1820,6 +2188,11 @@
           <t>tăng giảm các khoản phải trả không kể lãi vay phải trả thuế thu nhập phải nộp</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1832,6 +2205,11 @@
           <t>tăng giảm chi phí trả trước</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1844,6 +2222,11 @@
           <t>tiền lãi vay đã trả</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1856,6 +2239,11 @@
           <t>thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -1868,6 +2256,11 @@
           <t>tăng giảm các khoản thế chấp ký quỹ ký cược</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -1880,6 +2273,11 @@
           <t>tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -1892,6 +2290,11 @@
           <t>tiền chi khác từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -1904,6 +2307,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -1916,6 +2324,11 @@
           <t>lưu chuyển tiền từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -1928,6 +2341,11 @@
           <t>tăng giảm nhận vốn ủy thác quản lý dmđt</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -1940,6 +2358,11 @@
           <t>tăng giảm các khoản phải trả của người ủy thác đầu tư</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -1952,6 +2375,11 @@
           <t>tăng giảm tiền nhận theo các hợp đồng bán và mua lại ck</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -1964,6 +2392,11 @@
           <t>tăng giảm tiền nhận theo các hợp đồng môi giới ck</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -1976,6 +2409,11 @@
           <t>tăng giảm cho vay theo các hợp đồng mua và bán lại ck</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -1988,6 +2426,11 @@
           <t>tăng giảm các khoản phải thu của người ủy thác đầu tư</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2000,6 +2443,11 @@
           <t>tăng giảm tiền đặt cọc mua ck</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2012,6 +2460,11 @@
           <t>tăng giảm các khoản đầu tư</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2024,6 +2477,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2036,6 +2494,11 @@
           <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2048,6 +2511,11 @@
           <t>1 tiền chi để mua sắm xây dựng tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2060,6 +2528,11 @@
           <t>2 tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2072,6 +2545,11 @@
           <t>3 tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2084,6 +2562,11 @@
           <t>4 tiền thu hồi cho vay bán lại các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2096,6 +2579,11 @@
           <t>5 tiền chi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2108,6 +2596,11 @@
           <t>6 tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2120,6 +2613,11 @@
           <t>7 tiền thu lãi cho vay cổ tức và lợi nhuận được chia</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2132,6 +2630,11 @@
           <t>8 mua lại khoản góp vốn của cổ đông thiểu số trong công ty con</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2144,6 +2647,11 @@
           <t>9 khác</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2156,6 +2664,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2168,6 +2681,11 @@
           <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2180,6 +2698,11 @@
           <t>1 tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2192,6 +2715,11 @@
           <t>2 tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2204,6 +2732,11 @@
           <t>3 tiền vay ngắn hạn dài hạn nhận được</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2216,6 +2749,11 @@
           <t>4 tiền chi trả nợ gốc vay</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2228,6 +2766,11 @@
           <t>5 tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2240,6 +2783,11 @@
           <t>6 cổ tức lợi nhuận đã trả cho chủ sở hữu</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2252,6 +2800,11 @@
           <t>7 khác</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2264,6 +2817,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2276,6 +2834,11 @@
           <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2288,6 +2851,11 @@
           <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2300,6 +2868,11 @@
           <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2312,6 +2885,11 @@
           <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2332,6 +2910,11 @@
           <t>lưu chuyển tiền từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2352,6 +2935,11 @@
           <t>các khoản lập dự phòng</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2372,6 +2960,11 @@
           <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2392,6 +2985,11 @@
           <t>chi phí phải trả chi phí trả trước</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2412,6 +3010,11 @@
           <t>lãi lỗ từ hoạt động đầu tư đầu tư công ty con liên doanh liên kết</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2432,6 +3035,11 @@
           <t>lãi lỗ do thanh lý tscđ</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2452,6 +3060,11 @@
           <t>dự thu tiền lãi</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2472,6 +3085,11 @@
           <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2492,6 +3110,11 @@
           <t>lỗ đánh giá giá trị các tài sản tài chính ghi nhận thông qua kết quả kinh doanh</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2512,6 +3135,11 @@
           <t>lỗ đánh giá giá trị các công nợ tài chính ghi nhận thông qua kết quả kinh doanh</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2524,6 +3152,11 @@
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2544,6 +3177,11 @@
           <t>lỗ đánh giá giá trị các công cụ tài chính phái sinh</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -2564,6 +3202,11 @@
           <t>lỗ từ thanh lý các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -2584,6 +3227,11 @@
           <t>suy giảm giá trị của các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -2604,6 +3252,11 @@
           <t>lỗ đánh giá giá trị các công cụ tài chính phái sinh cho mục đích phòng ngừa rủi ro</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -2624,6 +3277,11 @@
           <t>lỗ từ thanh lý tài sản cố định</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -2644,6 +3302,11 @@
           <t>suy giảm giá trị của các tài sản cố định</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -2664,6 +3327,11 @@
           <t>lỗ từ thanh lý các khoản đầu tư vào công ty con và công ty liên doanh liên kết</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -2684,6 +3352,11 @@
           <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -2704,6 +3377,11 @@
           <t>lãi đánh giá giá trị các tài sản tài chính ghi nhận thông qua kết quả kinh doanh</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -2724,6 +3402,11 @@
           <t>lãi đánh giá giá trị các công nợ tài chính thông qua kết quả kinh doanh</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -2744,6 +3427,11 @@
           <t>lãi từ thanh lý các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -2764,6 +3452,11 @@
           <t>hoàn nhập suy giảm giá trị của các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -2784,6 +3477,11 @@
           <t>lãi đánh giá giá trị các công cụ tài chính phái sinh cho mục đích phòng ngừa</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -2804,6 +3502,11 @@
           <t>lãi từ thanh lý các khoản cho vay và phải thu</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -2824,6 +3527,11 @@
           <t>hoàn nhập chi phí dự phòng</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -2844,6 +3552,11 @@
           <t>lãi từ thanh lý tài sản cố định bđsđt</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -2864,6 +3577,11 @@
           <t>lãi từ thanh lý các khoản đầu tư vào công ty con và công ty liên doanh liên kết</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -2876,6 +3594,11 @@
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>giảm các doanh thu phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -2896,6 +3619,11 @@
           <t>thay đổi tài sản và nợ phải trả hoạt động</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -2916,6 +3644,11 @@
           <t>tăng giảm tài sản tài chính ghi nhận thông qua lãi lỗ</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -2936,6 +3669,11 @@
           <t>tăng giảm các khoản đầu tư giữ đến ngày đáo hạn</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -2952,6 +3690,11 @@
           <t>tăng giảm các khoản cho vay khách hàng</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -2972,6 +3715,11 @@
           <t>tăng giảm tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -2992,6 +3740,11 @@
           <t>tăng giảm các khoản phải thu</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3012,6 +3765,11 @@
           <t>tăng giảm vay và nợ thuê tài sản tài chính</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3032,6 +3790,11 @@
           <t>tăng giảm vay tài sản tài chính</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3052,6 +3815,11 @@
           <t>tăng giảm trái phiếu chuyển đổi cấu phần nợ</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3072,6 +3840,11 @@
           <t>tăng giảm trái phiếu phát hành</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3092,6 +3865,11 @@
           <t>tăng giảm vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3112,6 +3890,11 @@
           <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3132,6 +3915,11 @@
           <t>tăng giảm phải thu bán các tài sản tài chính</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3152,6 +3940,11 @@
           <t>tăng giảm phải thu tiền lãi các tài sản tài chính</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3172,6 +3965,11 @@
           <t>tăng giảm các khoản phải thu các dịch vụ ctck cung cấp</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3192,6 +3990,11 @@
           <t>tăng giảm các khoản phải thu về lỗi giao dịch chứng khoán</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3212,6 +4015,11 @@
           <t>tăng giảm các khoản phải thu khác</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3232,6 +4040,11 @@
           <t>tăng giảm các tài sản khác</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3252,6 +4065,11 @@
           <t>tăng giảm các khoản phải trả không kể lãi vay phải trả thuế thu nhập doanh nghiệp phải nộp</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3272,6 +4090,11 @@
           <t>tăng giảm chi phí trả trước</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3292,6 +4115,11 @@
           <t>thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3312,6 +4140,11 @@
           <t>tiền lãi vay đã trả</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3332,6 +4165,11 @@
           <t>tăng giảm phải trả cho người bán</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3352,6 +4190,11 @@
           <t>tăng giảm phải trả tổ chức phát hành chứng khoán</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3372,6 +4215,11 @@
           <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3392,6 +4240,11 @@
           <t>tăng giảm thuế và các khoản phải nộp nhà nước</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3412,6 +4265,11 @@
           <t>tăng giảm phải trả người lao động</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3424,6 +4282,11 @@
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3444,6 +4307,11 @@
           <t>tăng giảm phải trả phải nộp khác</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3464,6 +4332,11 @@
           <t>tăng giảm thuế tndn ctck đã nộp</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3484,6 +4357,11 @@
           <t>tăng giảm hàng tồn kho tăng giảm chứng khoán tự doanh</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3504,6 +4382,11 @@
           <t>tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3524,6 +4407,11 @@
           <t>tiền chi khác cho hoạt động kinh doanh</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -3544,6 +4432,11 @@
           <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -3564,6 +4457,11 @@
           <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -3584,6 +4482,11 @@
           <t>tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -3604,6 +4507,11 @@
           <t>tiền chi đầu tư vốn vào công ty con công ty liên doanh liên kết và đầu tư khác</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -3624,6 +4532,11 @@
           <t>tiền thu thanh lý các khoản đầu tư vào công ty con công ty liên doanh liên kết và đầu tư khác</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -3644,6 +4557,11 @@
           <t>tiền thu về cổ tức và lợi nhuận được chia</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -3664,6 +4582,11 @@
           <t>tiền chi khác từ hoạt động đầu tư</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -3684,6 +4607,11 @@
           <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -3704,6 +4632,11 @@
           <t>tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu quỹ</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -3724,6 +4657,11 @@
           <t>tiền vay gốc</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -3744,6 +4682,11 @@
           <t>tiền vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -3764,6 +4707,11 @@
           <t>tiền vay khác</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -3784,6 +4732,11 @@
           <t>tiền chi trả gốc vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -3804,6 +4757,11 @@
           <t>tiền chi trả nợ gốc vay tài sản tài chính</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -3824,6 +4782,11 @@
           <t>tiền chi trả gốc nợ vay khác</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -3844,6 +4807,11 @@
           <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>tiền và tương đương tiền cuối kỳ</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -3864,6 +4832,11 @@
           <t>tiền gửi ngân hàng đầu kỳ</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -3884,6 +4857,11 @@
           <t>tiền gửi ngân hàng cho hoạt động ctck</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -3904,6 +4882,11 @@
           <t>các khoản tương đương tiền</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -3924,6 +4907,11 @@
           <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ đầu kỳ</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -3944,6 +4932,11 @@
           <t>tiền gửi ngân hàng cuối kỳ</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -3964,6 +4957,11 @@
           <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ cuối kỳ</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>tăng các chi phí phi tiền tệ</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -3976,6 +4974,11 @@
           <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -3988,6 +4991,11 @@
           <t>lưu chuyển tiền hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4000,6 +5008,11 @@
           <t>tiền thu bán chứng khoán môi giới cho khách hàng</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4012,6 +5025,11 @@
           <t>tiền chi mua chứng khoán môi giới cho khách hàng</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4024,6 +5042,11 @@
           <t>tiền thu bán chứng khoán ủy thác của khách hàng</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4036,6 +5059,11 @@
           <t>tiền chi bán chứng khoán ủy thác của khách hàng</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4048,6 +5076,11 @@
           <t>thu tiền từ tài khoản vãng lai của khách hàng</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4060,6 +5093,11 @@
           <t>chi tiền từ tài khoản vãng lai của khách hàng</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4072,6 +5110,11 @@
           <t>thu vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4084,6 +5127,11 @@
           <t>chi trả vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4096,6 +5144,11 @@
           <t>nhận tiền gửi để thanh toán giao dịch chứng khoán của khách hàng</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4104,6 +5157,11 @@
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4116,6 +5174,11 @@
           <t>nhận tiền gửi của nhà đầu tư cho hoạt động ủy thác đầu tư của khách hàng</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4128,6 +5191,11 @@
           <t>chi trả phí lưu ký chứng khoán của khách hàng</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4140,6 +5208,11 @@
           <t>thu lỗi giao dịch chứng khoán</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4152,6 +5225,11 @@
           <t>chi lỗi giao dịch chứng khoán</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4164,6 +5242,11 @@
           <t>tiền thu của tổ chức phát hành chứng khoán</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4176,6 +5259,11 @@
           <t>tiền chi trả tổ chức phát hành chứng khoán</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4188,6 +5276,11 @@
           <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -4200,6 +5293,11 @@
           <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4216,6 +5314,11 @@
           <t>tiền gửi ngân hàng đầu kỳ</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4228,6 +5331,11 @@
           <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ctck quản lý</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4240,6 +5348,11 @@
           <t>trong đó có kỳ hạn</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4252,6 +5365,11 @@
           <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ngân hàng thương mại quản lý</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4264,6 +5382,11 @@
           <t>tiền gửi tổng hợp giao dịch chứng khoán cho khách hàng</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4276,6 +5399,11 @@
           <t>tiền gửi bù trừ và thanh toán giao dịch chứng khoán</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4288,6 +5416,11 @@
           <t>tiền gửi của tổ chức phát hành</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4304,6 +5437,11 @@
           <t>các khoản tương đương tiền</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -4320,6 +5458,11 @@
           <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -4332,6 +5475,11 @@
           <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -4346,6 +5494,11 @@
       <c r="D231" t="inlineStr">
         <is>
           <t>tiền gửi ngân hàng cuối kỳ</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>

--- a/functions/schema/LC_CashFlow Indirect_all_accounts.xlsx
+++ b/functions/schema/LC_CashFlow Indirect_all_accounts.xlsx
@@ -1704,22 +1704,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depreciation and amortization</t>
+          <t>cash flow from securities trading activities</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>operating profit before changes in working capital</t>
+          <t>cash flow from securities trading activities</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>khấu hao tài sản cố định</t>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>unrealized foreign exchange gain loss</t>
+          <t>depreciation and amortization</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
+          <t>khấu hao tài sản cố định</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>reversal of provisions provisions</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>khác</t>
+          <t>các khoản lập dự phòng</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>increase decrease in held for trading securities</t>
+          <t>unrealized foreign exchange gains losses</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>operating profit before changes in working capital</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>tăng giảm chứng khoán kinh doanh</t>
+          <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -1804,22 +1804,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>income tax paid</t>
+          <t>acrrued expenses prepayments expenses</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>thuế thu nhập doanh nghiệp đã nộp</t>
+          <t>chi phí phải trả chi phí trả trước</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -1829,22 +1829,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>other payments for operating activities</t>
+          <t>loss profits from other investing activities</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>net cash flows from operating activities</t>
+          <t>operating profit before changes in working capital</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>tiền chi khác từ hoạt động kinh doanh</t>
+          <t>lãi lỗ từ hoạt động đầu tư đầu tư công ty con liên doanh liên kết</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -1854,22 +1854,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>other payments for investing activities</t>
+          <t>loss profits from disposal of fixed asset</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>net cash flows from investing activities</t>
+          <t>operating profit before changes in working capital</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>tiền chi khác từ hoat động đầu tư</t>
+          <t>lãi lỗ do thanh lý tscđ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -1879,22 +1879,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>short term and long term borrowings</t>
+          <t>accrued interest income</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>tiền vay ngắn hạn dài hạn nhận được</t>
+          <t>dự thu tiền lãi</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -1904,22 +1904,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>principal repayments</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>operating profit before changes in working capital</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ gốc vay</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -1929,22 +1929,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>payments to settle finance leases</t>
+          <t>loss from revaluation losses of fvtpl financial assets</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ thuê tài chính</t>
+          <t>lỗ đánh giá giá trị các tài sản tài chính ghi nhận thông qua kết quả kinh doanh</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -1954,22 +1954,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>other payments for financing activities</t>
+          <t>loss from revaluation of fvtpl financial debt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>net cash flows from financing activities</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>tiền chi khác từ hoạt động tài chính</t>
+          <t>lỗ đánh giá giá trị các công nợ tài chính ghi nhận thông qua kết quả kinh doanh</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -1978,15 +1978,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
-        </is>
-      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -1994,16 +1994,24 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>losse from revaluetion</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1 lợi nhuận trước thuế</t>
+          <t>lỗ đánh giá giá trị các công cụ tài chính phái sinh</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2011,16 +2019,24 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>loss from provision available for sale financial assets</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2 điều chỉnh cho các khoản</t>
+          <t>lỗ từ thanh lý các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2028,16 +2044,24 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>value decline of available for sale financial assets</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>khấu hao tài sản cố định</t>
+          <t>suy giảm giá trị của các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2045,16 +2069,24 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>loss from revaluation of financial derivative tools for hedging purposes</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>các khoản dự phòng</t>
+          <t>lỗ đánh giá giá trị các công cụ tài chính phái sinh cho mục đích phòng ngừa rủi ro</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2062,16 +2094,24 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>losses from disposals of fixed assets</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
+          <t>lỗ từ thanh lý tài sản cố định</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2079,16 +2119,24 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>value decline of fixed assets</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>cổ tức lãi liên doanh đã trả</t>
+          <t>suy giảm giá trị của các tài sản cố định</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2096,16 +2144,24 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>loss from disposal investments in subsidiaries associates joint ventures</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>lãi lỗ từ hoạt động đầu tư</t>
+          <t>lỗ từ thanh lý các khoản đầu tư vào công ty con và công ty liên doanh liên kết</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2113,16 +2169,24 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>operating profit before changes in working capital</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>chi phí lãi vay</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2130,16 +2194,24 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>gains from revaluation gains of fvtpl financial assets</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lãi đánh giá giá trị các tài sản tài chính ghi nhận thông qua kết quả kinh doanh</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2147,16 +2219,24 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>gains from revaluation gains of fvtpl financial debt</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải thu</t>
+          <t>lãi đánh giá giá trị các công nợ tài chính thông qua kết quả kinh doanh</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2164,16 +2244,24 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>gains from disposals of avalable for sale financial assets</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>tăng giảm hàng tồn kho</t>
+          <t>lãi từ thanh lý các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2181,16 +2269,24 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>reversal of value decline of available for sale financial assets</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải trả không kể lãi vay phải trả thuế thu nhập phải nộp</t>
+          <t>hoàn nhập suy giảm giá trị của các tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2198,16 +2294,24 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>gains from revaluation of financial derivative tools for hedging purposes</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>tăng giảm chi phí trả trước</t>
+          <t>lãi đánh giá giá trị các công cụ tài chính phái sinh cho mục đích phòng ngừa</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2215,16 +2319,24 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>gains from disaposals loans and receivables</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>tiền lãi vay đã trả</t>
+          <t>lãi từ thanh lý các khoản cho vay và phải thu</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2232,16 +2344,24 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>reversal of allowances</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>thuế thu nhập doanh nghiệp đã nộp</t>
+          <t>hoàn nhập chi phí dự phòng</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2249,16 +2369,24 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>gains from disposal from fixed assets investment property</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản thế chấp ký quỹ ký cược</t>
+          <t>lãi từ thanh lý tài sản cố định bđsđt</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2266,16 +2394,24 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>gains from disposal investments in subsidiaries associates joint ventures</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động kinh doanh</t>
+          <t>lãi từ thanh lý các khoản đầu tư vào công ty con và công ty liên doanh liên kết</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2284,15 +2420,15 @@
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>tiền chi khác từ hoạt động kinh doanh</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>less non cash income</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>giảm các doanh thu phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2300,16 +2436,24 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>changes of assets and liabilities</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>operating profit before changes in working capital</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
+          <t>thay đổi tài sản và nợ phải trả hoạt động</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -2317,16 +2461,24 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>increase decrease in fvtpl financial assets</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng giảm tài sản tài chính ghi nhận thông qua lãi lỗ</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2334,16 +2486,24 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>increase decrease in held to maturity investments</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>tăng giảm nhận vốn ủy thác quản lý dmđt</t>
+          <t>tăng giảm các khoản đầu tư giữ đến ngày đáo hạn</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2351,16 +2511,20 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr"/>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>increase decrease in loan</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải trả của người ủy thác đầu tư</t>
+          <t>tăng giảm các khoản cho vay khách hàng</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -2368,16 +2532,24 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>increase decrease in afs financial assets</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>tăng giảm tiền nhận theo các hợp đồng bán và mua lại ck</t>
+          <t>tăng giảm tài sản tài chính sẵn sàng để bán</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2385,16 +2557,24 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>increase decrease in receivables</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>tăng giảm tiền nhận theo các hợp đồng môi giới ck</t>
+          <t>tăng giảm các khoản phải thu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2402,16 +2582,24 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>increase decrease in borrowings and finance lease liabilities</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>tăng giảm cho vay theo các hợp đồng mua và bán lại ck</t>
+          <t>tăng giảm vay và nợ thuê tài sản tài chính</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2419,16 +2607,24 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>increase decrease in finance assets borrowings</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải thu của người ủy thác đầu tư</t>
+          <t>tăng giảm vay tài sản tài chính</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2436,16 +2632,24 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>increase decrease in convertible bond debt structure</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>tăng giảm tiền đặt cọc mua ck</t>
+          <t>tăng giảm trái phiếu chuyển đổi cấu phần nợ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2453,16 +2657,24 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>increase decrease in issued bonds</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản đầu tư</t>
+          <t>tăng giảm trái phiếu phát hành</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2470,16 +2682,24 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>increase decrease borrowings to settlement assistance fund</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
+          <t>tăng giảm vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2487,16 +2707,24 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>operating profit before changes in working capital</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2504,16 +2732,24 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>increase decrease in receiables sale of financial assets</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1 tiền chi để mua sắm xây dựng tscđ và các tài sản dài hạn khác</t>
+          <t>tăng giảm phải thu bán các tài sản tài chính</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2521,16 +2757,24 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>increase decrease in receiables interest of financial assets</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2 tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
+          <t>tăng giảm phải thu tiền lãi các tài sản tài chính</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2538,16 +2782,24 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>increase decrease in service related receivables</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3 tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
+          <t>tăng giảm các khoản phải thu các dịch vụ ctck cung cấp</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2555,16 +2807,24 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>increase decrease in trading error receivables</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4 tiền thu hồi cho vay bán lại các công cụ nợ của đơn vị khác</t>
+          <t>tăng giảm các khoản phải thu về lỗi giao dịch chứng khoán</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2572,16 +2832,24 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>increases decreases in other receivables</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5 tiền chi đầu tư góp vốn vào đơn vị khác</t>
+          <t>tăng giảm các khoản phải thu khác</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2589,16 +2857,24 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>increase decrease in other assets</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6 tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
+          <t>tăng giảm các tài sản khác</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2606,16 +2882,24 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>increase decrease in payables other than interest corporate income tax</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7 tiền thu lãi cho vay cổ tức và lợi nhuận được chia</t>
+          <t>tăng giảm các khoản phải trả không kể lãi vay phải trả thuế thu nhập doanh nghiệp phải nộp</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2623,16 +2907,24 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>increase decrease in prepaid expenses</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8 mua lại khoản góp vốn của cổ đông thiểu số trong công ty con</t>
+          <t>tăng giảm chi phí trả trước</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2640,16 +2932,24 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>corporate income tax paid</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9 khác</t>
+          <t>thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2657,16 +2957,24 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>interest paid</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>tiền lãi vay đã trả</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2674,16 +2982,24 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>increases decreaese in trade payables</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>tăng giảm phải trả cho người bán</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2691,16 +3007,24 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>increases decreaese in payable securities issuers</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>1 tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu</t>
+          <t>tăng giảm phải trả tổ chức phát hành chứng khoán</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2708,16 +3032,24 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>increases decreases in employee welfare payables</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>increases decreases in employee welfare payables</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2 tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
+          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
         </is>
       </c>
     </row>
@@ -2725,16 +3057,24 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>increases decreases in tax and other payables to the state budget</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3 tiền vay ngắn hạn dài hạn nhận được</t>
+          <t>tăng giảm thuế và các khoản phải nộp nhà nước</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2742,16 +3082,24 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>increases dcreases in payable to employees</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>increases decreases in employee welfare payables</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>4 tiền chi trả nợ gốc vay</t>
+          <t>tăng giảm phải trả người lao động</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
         </is>
       </c>
     </row>
@@ -2760,15 +3108,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>5 tiền chi trả nợ thuê tài chính</t>
-        </is>
-      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2776,16 +3124,24 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>increases dcreases in other payables</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>6 cổ tức lợi nhuận đã trả cho chủ sở hữu</t>
+          <t>tăng giảm phải trả phải nộp khác</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2793,16 +3149,24 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>increases dcreases corporate income tax paid</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>add non cash expenses</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>7 khác</t>
+          <t>tăng giảm thuế tndn ctck đã nộp</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -2810,16 +3174,24 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>increase decrease in inventories</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>tăng giảm hàng tồn kho tăng giảm chứng khoán tự doanh</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2827,16 +3199,24 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>other receipts from operating activities</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2844,16 +3224,24 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>other payments for operating activities</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền đầu kỳ</t>
+          <t>tiền chi khác cho hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
     </row>
@@ -2861,16 +3249,24 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>net cash flows from securities trading activities</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>net cash flows during the period</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -2878,16 +3274,24 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>cash flow from investing activities</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>cash flow from investing activities</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2897,22 +3301,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>cash flow from securities trading activities</t>
+          <t>proceeds from disposals of fixed assets and other long term assets</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>cash flow from securities trading activities</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động kinh doanh chứng khoán</t>
+          <t>tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động kinh doanh chứng khoán</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2922,22 +3326,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>reversal of provisions provisions</t>
+          <t>payments for investment in other entities</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>operating profit before changes in working capital</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>các khoản lập dự phòng</t>
+          <t>tiền chi đầu tư vốn vào công ty con công ty liên doanh liên kết và đầu tư khác</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2947,22 +3351,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>unrealized foreign exchange gains losses</t>
+          <t>collections on investment in other entities</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>operating profit before changes in working capital</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
+          <t>tiền thu thanh lý các khoản đầu tư vào công ty con công ty liên doanh liên kết và đầu tư khác</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2972,22 +3376,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>acrrued expenses prepayments expenses</t>
+          <t>dividends interest and profit received</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>add non cash expenses</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>chi phí phải trả chi phí trả trước</t>
+          <t>tiền thu về cổ tức và lợi nhuận được chia</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -2997,22 +3401,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>loss profits from other investing activities</t>
+          <t>other payments for investing activities</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>operating profit before changes in working capital</t>
+          <t>net cash flows from investing activities</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>lãi lỗ từ hoạt động đầu tư đầu tư công ty con liên doanh liên kết</t>
+          <t>tiền chi khác từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -3022,22 +3426,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>loss profits from disposal of fixed asset</t>
+          <t>cash flow from financing activities</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>operating profit before changes in working capital</t>
+          <t>cash flow from financing activities</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>lãi lỗ do thanh lý tscđ</t>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3047,22 +3451,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>accrued interest income</t>
+          <t>payment for share repurchases</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>add non cash expenses</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>dự thu tiền lãi</t>
+          <t>tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu quỹ</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3072,22 +3476,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>add non cash expenses</t>
+          <t>short term and long term borrowings</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>operating profit before changes in working capital</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>tiền vay gốc</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3501,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>loss from revaluation losses of fvtpl financial assets</t>
+          <t>borrowings to settlement assistance fund</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3107,7 +3511,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>lỗ đánh giá giá trị các tài sản tài chính ghi nhận thông qua kết quả kinh doanh</t>
+          <t>tiền vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3122,7 +3526,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>loss from revaluation of fvtpl financial debt</t>
+          <t>other borrowings</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3132,7 +3536,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>lỗ đánh giá giá trị các công nợ tài chính ghi nhận thông qua kết quả kinh doanh</t>
+          <t>tiền vay khác</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3145,16 +3549,24 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>principal repayments</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>net cash flows from financing activities</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>tiền chi trả nợ gốc vay</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3576,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>losse from revaluetion</t>
+          <t>principal repayments to settlement assistance fund</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3174,7 +3586,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>lỗ đánh giá giá trị các công cụ tài chính phái sinh</t>
+          <t>tiền chi trả gốc vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3189,7 +3601,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>loss from provision available for sale financial assets</t>
+          <t>principal repayments to financial assets</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3199,7 +3611,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>lỗ từ thanh lý các tài sản tài chính sẵn sàng để bán</t>
+          <t>tiền chi trả nợ gốc vay tài sản tài chính</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3214,7 +3626,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>value decline of available for sale financial assets</t>
+          <t>other principal repayments</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3224,7 +3636,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>suy giảm giá trị của các tài sản tài chính sẵn sàng để bán</t>
+          <t>tiền chi trả gốc nợ vay khác</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3239,22 +3651,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>loss from revaluation of financial derivative tools for hedging purposes</t>
+          <t>payments to settle finance leases</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>add non cash expenses</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>lỗ đánh giá giá trị các công cụ tài chính phái sinh cho mục đích phòng ngừa rủi ro</t>
+          <t>tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3676,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>losses from disposals of fixed assets</t>
+          <t>other payments for financing activities</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>add non cash expenses</t>
+          <t>net cash flows from financing activities</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>lỗ từ thanh lý tài sản cố định</t>
+          <t>tiền chi khác từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -3289,22 +3701,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>value decline of fixed assets</t>
+          <t>cash and cash equivalents at begingning of the period</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>add non cash expenses</t>
+          <t>cash and cash equivalents at end of the period</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>suy giảm giá trị của các tài sản cố định</t>
+          <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -3314,7 +3726,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>loss from disposal investments in subsidiaries associates joint ventures</t>
+          <t>cash at bank</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3324,7 +3736,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>lỗ từ thanh lý các khoản đầu tư vào công ty con và công ty liên doanh liên kết</t>
+          <t>tiền gửi ngân hàng đầu kỳ</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -3339,22 +3751,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>less non cash income</t>
+          <t>cash at bank for securities company activities</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>operating profit before changes in working capital</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>tiền gửi ngân hàng cho hoạt động ctck</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -3364,22 +3776,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>gains from revaluation gains of fvtpl financial assets</t>
+          <t>cash equivalents</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>less non cash income</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>lãi đánh giá giá trị các tài sản tài chính ghi nhận thông qua kết quả kinh doanh</t>
+          <t>các khoản tương đương tiền</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -3389,22 +3801,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>gains from revaluation gains of fvtpl financial debt</t>
+          <t>exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>less non cash income</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>lãi đánh giá giá trị các công nợ tài chính thông qua kết quả kinh doanh</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ đầu kỳ</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -3414,22 +3826,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>gains from disposals of avalable for sale financial assets</t>
+          <t>cash at bank</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>less non cash income</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>lãi từ thanh lý các tài sản tài chính sẵn sàng để bán</t>
+          <t>tiền gửi ngân hàng cuối kỳ</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -3439,22 +3851,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>reversal of value decline of available for sale financial assets</t>
+          <t>exchange difference due to re valuation of ending balances</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>less non cash income</t>
+          <t>add non cash expenses</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>hoàn nhập suy giảm giá trị của các tài sản tài chính sẵn sàng để bán</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ cuối kỳ</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>tăng các chi phí phi tiền tệ</t>
         </is>
       </c>
     </row>
@@ -3462,24 +3874,16 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>gains from revaluation of financial derivative tools for hedging purposes</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>less non cash income</t>
-        </is>
-      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>lãi đánh giá giá trị các công cụ tài chính phái sinh cho mục đích phòng ngừa</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3487,24 +3891,16 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>gains from disaposals loans and receivables</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>less non cash income</t>
-        </is>
-      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>lãi từ thanh lý các khoản cho vay và phải thu</t>
+          <t>lưu chuyển tiền hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3512,24 +3908,16 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>reversal of allowances</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>less non cash income</t>
-        </is>
-      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>hoàn nhập chi phí dự phòng</t>
+          <t>tiền thu bán chứng khoán môi giới cho khách hàng</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3537,24 +3925,16 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>gains from disposal from fixed assets investment property</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>less non cash income</t>
-        </is>
-      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>lãi từ thanh lý tài sản cố định bđsđt</t>
+          <t>tiền chi mua chứng khoán môi giới cho khách hàng</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3562,24 +3942,16 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>gains from disposal investments in subsidiaries associates joint ventures</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>less non cash income</t>
-        </is>
-      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>lãi từ thanh lý các khoản đầu tư vào công ty con và công ty liên doanh liên kết</t>
+          <t>tiền thu bán chứng khoán ủy thác của khách hàng</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3588,15 +3960,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>less non cash income</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>tiền chi bán chứng khoán ủy thác của khách hàng</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>giảm các doanh thu phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3604,24 +3976,16 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>changes of assets and liabilities</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>operating profit before changes in working capital</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>thay đổi tài sản và nợ phải trả hoạt động</t>
+          <t>thu tiền từ tài khoản vãng lai của khách hàng</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3629,24 +3993,16 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>increase decrease in fvtpl financial assets</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>tăng giảm tài sản tài chính ghi nhận thông qua lãi lỗ</t>
+          <t>chi tiền từ tài khoản vãng lai của khách hàng</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3654,24 +4010,16 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>increase decrease in held to maturity investments</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản đầu tư giữ đến ngày đáo hạn</t>
+          <t>thu vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3679,15 +4027,11 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>increase decrease in loan</t>
-        </is>
-      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản cho vay khách hàng</t>
+          <t>chi trả vay quỹ hỗ trợ thanh toán</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -3700,24 +4044,16 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>increase decrease in afs financial assets</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>tăng giảm tài sản tài chính sẵn sàng để bán</t>
+          <t>nhận tiền gửi để thanh toán giao dịch chứng khoán của khách hàng</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3725,24 +4061,12 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>increase decrease in receivables</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>tăng giảm các khoản phải thu</t>
-        </is>
-      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3750,24 +4074,16 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>increase decrease in borrowings and finance lease liabilities</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>tăng giảm vay và nợ thuê tài sản tài chính</t>
+          <t>nhận tiền gửi của nhà đầu tư cho hoạt động ủy thác đầu tư của khách hàng</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3775,24 +4091,16 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>increase decrease in finance assets borrowings</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>tăng giảm vay tài sản tài chính</t>
+          <t>chi trả phí lưu ký chứng khoán của khách hàng</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3800,24 +4108,16 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>increase decrease in convertible bond debt structure</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>tăng giảm trái phiếu chuyển đổi cấu phần nợ</t>
+          <t>thu lỗi giao dịch chứng khoán</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3825,24 +4125,16 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>increase decrease in issued bonds</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>tăng giảm trái phiếu phát hành</t>
+          <t>chi lỗi giao dịch chứng khoán</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3850,24 +4142,16 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>increase decrease borrowings to settlement assistance fund</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>tăng giảm vay quỹ hỗ trợ thanh toán</t>
+          <t>tiền thu của tổ chức phát hành chứng khoán</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3875,24 +4159,16 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>operating profit before changes in working capital</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
+          <t>tiền chi trả tổ chức phát hành chứng khoán</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3900,24 +4176,16 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>increase decrease in receiables sale of financial assets</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>tăng giảm phải thu bán các tài sản tài chính</t>
+          <t>tăng giảm tiền thuần trong kỳ</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3925,24 +4193,16 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>increase decrease in receiables interest of financial assets</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>tăng giảm phải thu tiền lãi các tài sản tài chính</t>
+          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3952,22 +4212,18 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>increase decrease in service related receivables</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+          <t>cash at bank</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải thu các dịch vụ ctck cung cấp</t>
+          <t>tiền gửi ngân hàng đầu kỳ</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -3975,24 +4231,16 @@
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>increase decrease in trading error receivables</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải thu về lỗi giao dịch chứng khoán</t>
+          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ctck quản lý</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4000,24 +4248,16 @@
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>increases decreases in other receivables</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải thu khác</t>
+          <t>trong đó có kỳ hạn</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4025,24 +4265,16 @@
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>increase decrease in other assets</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>tăng giảm các tài sản khác</t>
+          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ngân hàng thương mại quản lý</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4050,24 +4282,16 @@
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>increase decrease in payables other than interest corporate income tax</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản phải trả không kể lãi vay phải trả thuế thu nhập doanh nghiệp phải nộp</t>
+          <t>tiền gửi tổng hợp giao dịch chứng khoán cho khách hàng</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4075,24 +4299,16 @@
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>increase decrease in prepaid expenses</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>tăng giảm chi phí trả trước</t>
+          <t>tiền gửi bù trừ và thanh toán giao dịch chứng khoán</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4100,24 +4316,16 @@
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>corporate income tax paid</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>thuế thu nhập doanh nghiệp đã nộp</t>
+          <t>tiền gửi của tổ chức phát hành</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4127,22 +4335,18 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>interest paid</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+          <t>cash equivalents</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>tiền lãi vay đã trả</t>
+          <t>các khoản tương đương tiền</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4152,22 +4356,18 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>increases decreaese in trade payables</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+          <t>exchange difference due to re valuation of ending balances</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>tăng giảm phải trả cho người bán</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4175,24 +4375,16 @@
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>increases decreaese in payable securities issuers</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>tăng giảm phải trả tổ chức phát hành chứng khoán</t>
+          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4202,22 +4394,18 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>increases decreases in employee welfare payables</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>increases decreases in employee welfare payables</t>
-        </is>
-      </c>
+          <t>cash at bank</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
+          <t>tiền gửi ngân hàng cuối kỳ</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
+          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
         </is>
       </c>
     </row>
@@ -4225,24 +4413,16 @@
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>increases decreases in tax and other payables to the state budget</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>tăng giảm thuế và các khoản phải nộp nhà nước</t>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4250,24 +4430,16 @@
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>increases dcreases in payable to employees</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>increases decreases in employee welfare payables</t>
-        </is>
-      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>tăng giảm phải trả người lao động</t>
+          <t>1 lợi nhuận trước thuế</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>tăng giảm các khoản trích nộp phúc lợi nhân viên</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4276,15 +4448,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2 điều chỉnh cho các khoản</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4292,24 +4464,16 @@
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>increases dcreases in other payables</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>tăng giảm phải trả phải nộp khác</t>
+          <t>khấu hao tài sản cố định</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4317,24 +4481,16 @@
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>increases dcreases corporate income tax paid</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>tăng giảm thuế tndn ctck đã nộp</t>
+          <t>các khoản dự phòng</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4342,24 +4498,16 @@
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>increase decrease in inventories</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>tăng giảm hàng tồn kho tăng giảm chứng khoán tự doanh</t>
+          <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4367,24 +4515,16 @@
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>other receipts from operating activities</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>tiền thu khác từ hoạt động kinh doanh</t>
+          <t>cổ tức lãi liên doanh đã trả</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4392,24 +4532,16 @@
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>other payments for operating activities</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>tiền chi khác cho hoạt động kinh doanh</t>
+          <t>lãi lỗ từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4417,24 +4549,16 @@
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>net cash flows from securities trading activities</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>net cash flows during the period</t>
-        </is>
-      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh chứng khoán</t>
+          <t>chi phí lãi vay</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần trong kỳ</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -4442,24 +4566,16 @@
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>cash flow from investing activities</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>cash flow from investing activities</t>
-        </is>
-      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>3 lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4467,24 +4583,16 @@
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>proceeds from disposals of fixed assets and other long term assets</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>net cash flows from investing activities</t>
-        </is>
-      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
+          <t>tăng giảm các khoản phải thu</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4492,24 +4600,16 @@
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>payments for investment in other entities</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>net cash flows from investing activities</t>
-        </is>
-      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>tiền chi đầu tư vốn vào công ty con công ty liên doanh liên kết và đầu tư khác</t>
+          <t>tăng giảm hàng tồn kho</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4517,24 +4617,16 @@
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>collections on investment in other entities</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>net cash flows from investing activities</t>
-        </is>
-      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>tiền thu thanh lý các khoản đầu tư vào công ty con công ty liên doanh liên kết và đầu tư khác</t>
+          <t>tăng giảm các khoản phải trả không kể lãi vay phải trả thuế thu nhập phải nộp</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4542,24 +4634,16 @@
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>dividends interest and profit received</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>net cash flows from investing activities</t>
-        </is>
-      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>tiền thu về cổ tức và lợi nhuận được chia</t>
+          <t>tăng giảm chi phí trả trước</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4567,24 +4651,16 @@
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>other payments for investing activities</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>net cash flows from investing activities</t>
-        </is>
-      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>tiền chi khác từ hoạt động đầu tư</t>
+          <t>tiền lãi vay đã trả</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4592,24 +4668,16 @@
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>cash flow from financing activities</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>cash flow from financing activities</t>
-        </is>
-      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4617,24 +4685,16 @@
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>payment for share repurchases</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>net cash flows from financing activities</t>
-        </is>
-      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu quỹ</t>
+          <t>tăng giảm các khoản thế chấp ký quỹ ký cược</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4642,24 +4702,16 @@
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>short term and long term borrowings</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>net cash flows from financing activities</t>
-        </is>
-      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>tiền vay gốc</t>
+          <t>tiền thu khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4667,24 +4719,16 @@
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>borrowings to settlement assistance fund</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>tiền vay quỹ hỗ trợ thanh toán</t>
+          <t>tiền chi khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -4692,24 +4736,16 @@
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>other borrowings</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>tiền vay khác</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4717,24 +4753,16 @@
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>principal repayments to settlement assistance fund</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>tiền chi trả gốc vay quỹ hỗ trợ thanh toán</t>
+          <t>lưu chuyển tiền từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4742,24 +4770,16 @@
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>principal repayments to financial assets</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>tiền chi trả nợ gốc vay tài sản tài chính</t>
+          <t>tăng giảm nhận vốn ủy thác quản lý dmđt</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4767,24 +4787,16 @@
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>other principal repayments</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>tiền chi trả gốc nợ vay khác</t>
+          <t>tăng giảm các khoản phải trả của người ủy thác đầu tư</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4792,24 +4804,16 @@
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents at begingning of the period</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>cash and cash equivalents at end of the period</t>
-        </is>
-      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền đầu kỳ</t>
+          <t>tăng giảm tiền nhận theo các hợp đồng bán và mua lại ck</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>tiền và tương đương tiền cuối kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4817,24 +4821,16 @@
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>cash at bank</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng đầu kỳ</t>
+          <t>tăng giảm tiền nhận theo các hợp đồng môi giới ck</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4842,24 +4838,16 @@
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>cash at bank for securities company activities</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng cho hoạt động ctck</t>
+          <t>tăng giảm cho vay theo các hợp đồng mua và bán lại ck</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4867,24 +4855,16 @@
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>cash equivalents</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>các khoản tương đương tiền</t>
+          <t>tăng giảm các khoản phải thu của người ủy thác đầu tư</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4892,24 +4872,16 @@
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>exchange difference due to re valuation of ending balances</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ đầu kỳ</t>
+          <t>tăng giảm tiền đặt cọc mua ck</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4917,24 +4889,16 @@
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>cash at bank</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng cuối kỳ</t>
+          <t>tăng giảm các khoản đầu tư</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
     </row>
@@ -4942,24 +4906,16 @@
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>exchange difference due to re valuation of ending balances</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>add non cash expenses</t>
-        </is>
-      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ cuối kỳ</t>
+          <t>lưu chuyển tiền thuần từ hoạt động quản lý danh mục đầu tư cho người đầu tư</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>tăng các chi phí phi tiền tệ</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -4971,12 +4927,12 @@
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -4988,12 +4944,12 @@
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>lưu chuyển tiền hoạt động môi giới ủy thác của khách hàng</t>
+          <t>1 tiền chi để mua sắm xây dựng tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5005,12 +4961,12 @@
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>tiền thu bán chứng khoán môi giới cho khách hàng</t>
+          <t>2 tiền thu từ thanh lý nhượng bán tscđ và các tài sản dài hạn khác</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5022,12 +4978,12 @@
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>tiền chi mua chứng khoán môi giới cho khách hàng</t>
+          <t>3 tiền chi cho vay mua các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5039,12 +4995,12 @@
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>tiền thu bán chứng khoán ủy thác của khách hàng</t>
+          <t>4 tiền thu hồi cho vay bán lại các công cụ nợ của đơn vị khác</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5012,12 @@
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>tiền chi bán chứng khoán ủy thác của khách hàng</t>
+          <t>5 tiền chi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5073,12 +5029,12 @@
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>thu tiền từ tài khoản vãng lai của khách hàng</t>
+          <t>6 tiền thu hồi đầu tư góp vốn vào đơn vị khác</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5090,12 +5046,12 @@
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>chi tiền từ tài khoản vãng lai của khách hàng</t>
+          <t>7 tiền thu lãi cho vay cổ tức và lợi nhuận được chia</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5107,12 +5063,12 @@
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>thu vay quỹ hỗ trợ thanh toán</t>
+          <t>8 mua lại khoản góp vốn của cổ đông thiểu số trong công ty con</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5124,12 +5080,12 @@
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>chi trả vay quỹ hỗ trợ thanh toán</t>
+          <t>9 khác</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5141,12 +5097,12 @@
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>nhận tiền gửi để thanh toán giao dịch chứng khoán của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -5156,10 +5112,14 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5171,12 +5131,12 @@
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>nhận tiền gửi của nhà đầu tư cho hoạt động ủy thác đầu tư của khách hàng</t>
+          <t>1 tiền thu từ phát hành cổ phiếu nhận vốn góp của chủ sở hữu</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5188,12 +5148,12 @@
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>chi trả phí lưu ký chứng khoán của khách hàng</t>
+          <t>2 tiền chi trả vốn góp cho các chủ sở hữu mua lại cổ phiếu của doanh nghiệp đã phát hành</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5205,12 +5165,12 @@
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>thu lỗi giao dịch chứng khoán</t>
+          <t>3 tiền vay ngắn hạn dài hạn nhận được</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5222,12 +5182,12 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>chi lỗi giao dịch chứng khoán</t>
+          <t>4 tiền chi trả nợ gốc vay</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5239,12 +5199,12 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>tiền thu của tổ chức phát hành chứng khoán</t>
+          <t>5 tiền chi trả nợ thuê tài chính</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5256,12 +5216,12 @@
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>tiền chi trả tổ chức phát hành chứng khoán</t>
+          <t>6 cổ tức lợi nhuận đã trả cho chủ sở hữu</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5273,12 +5233,12 @@
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>tăng giảm tiền thuần trong kỳ</t>
+          <t>7 khác</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
@@ -5290,12 +5250,12 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền đầu kỳ của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
     </row>
@@ -5303,20 +5263,16 @@
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>cash at bank</t>
-        </is>
-      </c>
+      <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng đầu kỳ</t>
+          <t>lưu chuyển tiền thuần trong kỳ</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -5328,12 +5284,12 @@
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ctck quản lý</t>
+          <t>tiền và tương đương tiền đầu kỳ</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -5345,12 +5301,12 @@
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>trong đó có kỳ hạn</t>
+          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -5362,12 +5318,12 @@
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>tiền gửi của nhà đầu tư về giao dịch chứng khoán theo phương thức ngân hàng thương mại quản lý</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>tiền và tương đương tiền cuối kỳ</t>
         </is>
       </c>
     </row>
@@ -5375,16 +5331,24 @@
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>unrealized foreign exchange gain loss</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>operating profit before changes in working capital</t>
+        </is>
+      </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>tiền gửi tổng hợp giao dịch chứng khoán cho khách hàng</t>
+          <t>lãi lỗ chênh lệch tỷ giá hối đoái chưa thực hiện</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -5392,16 +5356,24 @@
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>operating profit before changes in working capital</t>
+        </is>
+      </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>tiền gửi bù trừ và thanh toán giao dịch chứng khoán</t>
+          <t>khác</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lợi nhuận từ hoạt động kinh doanh trước thay đổi vốn lưu động</t>
         </is>
       </c>
     </row>
@@ -5409,16 +5381,24 @@
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>increase decrease in held for trading securities</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>net cash flows from operating activities</t>
+        </is>
+      </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>tiền gửi của tổ chức phát hành</t>
+          <t>tăng giảm chứng khoán kinh doanh</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -5428,18 +5408,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>cash equivalents</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr"/>
+          <t>income tax paid</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>net cash flows from operating activities</t>
+        </is>
+      </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>các khoản tương đương tiền</t>
+          <t>thuế thu nhập doanh nghiệp đã nộp</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -5449,18 +5433,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>exchange difference due to re valuation of ending balances</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
+          <t>other payments for operating activities</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>net cash flows from operating activities</t>
+        </is>
+      </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>ảnh hưởng của thay đổi tỷ giá hối đoái quy đổi ngoại tệ</t>
+          <t>tiền chi khác từ hoạt động kinh doanh</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động kinh doanh</t>
         </is>
       </c>
     </row>
@@ -5468,16 +5456,24 @@
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>other payments for investing activities</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>net cash flows from investing activities</t>
+        </is>
+      </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>tiền và các khoản tương đương tiền cuối kỳ của khách hàng</t>
+          <t>tiền chi khác từ hoat động đầu tư</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động đầu tư</t>
         </is>
       </c>
     </row>
@@ -5487,18 +5483,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>cash at bank</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
+          <t>short term and long term borrowings</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>net cash flows from financing activities</t>
+        </is>
+      </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>tiền gửi ngân hàng cuối kỳ</t>
+          <t>tiền vay ngắn hạn dài hạn nhận được</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>phần lưu chuyển tiền tệ hoạt động môi giới ủy thác của khách hàng</t>
+          <t>lưu chuyển tiền thuần từ hoạt động tài chính</t>
         </is>
       </c>
     </row>
